--- a/TC17_ApprovedRequest/17_Choice_ApprovedRequest.xlsx
+++ b/TC17_ApprovedRequest/17_Choice_ApprovedRequest.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="67">
   <si>
     <t>TCID</t>
   </si>
@@ -59,37 +59,28 @@
     <t>รออนุมัติ</t>
   </si>
   <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>PASS</t>
+  </si>
+  <si>
+    <t>ข้อความแสดงผลถูกต้อง</t>
+  </si>
+  <si>
+    <t>กดปุ่ม Ok</t>
+  </si>
+  <si>
+    <t>ไม่อนุมัติ</t>
+  </si>
+  <si>
+    <t>ข้อมูลครบถ้วน สามารถอนุมัติได้ Very good!</t>
+  </si>
+  <si>
+    <t>กดปุ่มอนุมัติ</t>
+  </si>
+  <si>
     <t>อนุมัติ</t>
-  </si>
-  <si>
-    <t>Fail</t>
-  </si>
-  <si>
-    <t>PASS</t>
-  </si>
-  <si>
-    <t>ข้อความไม่ตรงตามที่คาดหวังไว้ ควรแก้ไขเป็น รออนุมัติ</t>
-  </si>
-  <si>
-    <t>กดปุ่ม Ok</t>
-  </si>
-  <si>
-    <t>ไม่อนุมัติ</t>
-  </si>
-  <si>
-    <t>ข้อความไม่ตรงตามที่คาดหวังไว้ ควรแก้ไขเป็น ไม่อนุมัติ</t>
-  </si>
-  <si>
-    <t>ข้อมูลครบถ้วน สามารถอนุมัติได้ Very good!</t>
-  </si>
-  <si>
-    <t>กดปุ่มอนุมัติ</t>
-  </si>
-  <si>
-    <t>Pass</t>
-  </si>
-  <si>
-    <t>ข้อความแสดงผลถูกต้อง</t>
   </si>
   <si>
     <t>Result Pass / Fail</t>
@@ -489,7 +480,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -605,22 +596,10 @@
     <xf numFmtId="49" fontId="6" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -987,7 +966,7 @@
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="56" zoomScaleNormal="56" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="G2" sqref="G2:H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14" outlineLevelCol="0"/>
@@ -1054,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="I2" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="J2" s="5" t="s">
         <v>16</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="62.5" customHeight="1" s="43">
@@ -1077,25 +1056,25 @@
         <v>11</v>
       </c>
       <c r="D3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>18</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>19</v>
       </c>
       <c r="F3" s="4" t="n">
         <v>2</v>
       </c>
       <c r="G3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="I3" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="J3" s="5" t="s">
         <v>16</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="46" customHeight="1" s="43">
@@ -1103,10 +1082,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>12</v>
@@ -1118,16 +1097,16 @@
         <v>3</v>
       </c>
       <c r="G4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="I4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="J4" s="5" t="s">
         <v>16</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="88.5" customHeight="1" s="43">
@@ -1135,44 +1114,44 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>21</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>14</v>
       </c>
       <c r="F5" s="4" t="n">
         <v>4</v>
       </c>
       <c r="G5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="6" t="s">
-        <v>23</v>
-      </c>
       <c r="I5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" s="5" t="s">
         <v>16</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="F8" s="42" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="H8" s="42" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="F9" s="12" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G9" s="5">
         <f>COUNTIF(H2:H5, "Pass")</f>
@@ -1185,7 +1164,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="F10" s="12" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G10" s="5">
         <f>COUNTIF(H2:H5, "FAIL")</f>
@@ -1198,7 +1177,7 @@
     </row>
     <row r="11" spans="1:10">
       <c r="F11" s="12" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G11" s="15">
         <f>SUM(G9+G10)</f>
@@ -1220,15 +1199,15 @@
     </row>
     <row r="14" spans="1:10">
       <c r="F14" s="42" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H14" s="42" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="F15" s="12" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G15" s="5">
         <f>COUNTIF(I2:I5, "PASS")</f>
@@ -1241,7 +1220,7 @@
     </row>
     <row r="16" spans="1:10">
       <c r="F16" s="12" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G16" s="5">
         <f>COUNTIF(I2:I5, "FAIL")</f>
@@ -1254,7 +1233,7 @@
     </row>
     <row r="17" spans="1:10">
       <c r="F17" s="12" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G17" s="15">
         <f>SUM(G15+G16)</f>
@@ -1308,19 +1287,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="F1" s="18" t="s">
         <v>32</v>
-      </c>
-      <c r="D1" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="E1" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="F1" s="18" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="16.5" customHeight="1" s="43">
@@ -1328,90 +1307,90 @@
         <v>1</v>
       </c>
       <c r="B2" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="23" t="n"/>
+      <c r="F2" s="45" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="16.5" customHeight="1" s="43">
+      <c r="A3" s="46" t="n"/>
+      <c r="C3" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="D3" s="25" t="s">
         <v>37</v>
-      </c>
-      <c r="D2" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="E2" s="23" t="n"/>
-      <c r="F2" s="46" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="16.5" customHeight="1" s="43">
-      <c r="A3" s="49" t="n"/>
-      <c r="C3" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="D3" s="25" t="s">
-        <v>40</v>
       </c>
       <c r="E3" s="26" t="n"/>
     </row>
     <row r="4" spans="1:6">
       <c r="B4" s="27" t="n"/>
       <c r="C4" s="28" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D4" s="27" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E4" s="29" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="B5" s="27" t="n"/>
       <c r="C5" s="28" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D5" s="27" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E5" s="30" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="B6" s="27" t="n"/>
       <c r="C6" s="31" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D6" s="32" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E6" s="33" t="n"/>
     </row>
     <row r="7" spans="1:6">
       <c r="B7" s="27" t="n"/>
       <c r="C7" s="34" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D7" s="25" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E7" s="33" t="n"/>
     </row>
     <row r="8" spans="1:6">
       <c r="B8" s="32" t="n"/>
       <c r="C8" s="31" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D8" s="32" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E8" s="33" t="n"/>
     </row>
     <row r="9" spans="1:6">
       <c r="B9" s="32" t="n"/>
       <c r="C9" s="31" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D9" s="32" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E9" s="33" t="s">
         <v>10</v>
@@ -1420,126 +1399,126 @@
     <row r="10" spans="1:6">
       <c r="B10" s="32" t="n"/>
       <c r="C10" s="31" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D10" s="32" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E10" s="35" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="B11" s="32" t="n"/>
       <c r="C11" s="31" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D11" s="32" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E11" s="41" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="B12" s="36" t="n"/>
       <c r="C12" s="37" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D12" s="38" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E12" s="39" t="n"/>
     </row>
     <row r="13" spans="1:6" ht="16.5" customHeight="1" s="43">
       <c r="A13" s="20" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B13" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" s="23" t="n"/>
+      <c r="F13" s="45" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="16.5" customHeight="1" s="43">
+      <c r="A14" s="46" t="n"/>
+      <c r="C14" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="21" t="s">
+      <c r="D14" s="25" t="s">
         <v>37</v>
-      </c>
-      <c r="D13" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="E13" s="23" t="n"/>
-      <c r="F13" s="46" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="16.5" customHeight="1" s="43">
-      <c r="A14" s="49" t="n"/>
-      <c r="C14" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="D14" s="25" t="s">
-        <v>40</v>
       </c>
       <c r="E14" s="26" t="n"/>
     </row>
     <row r="15" spans="1:6">
       <c r="B15" s="27" t="n"/>
       <c r="C15" s="28" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D15" s="27" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E15" s="29" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="B16" s="27" t="n"/>
       <c r="C16" s="28" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D16" s="27" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E16" s="30" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="B17" s="27" t="n"/>
       <c r="C17" s="31" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D17" s="32" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E17" s="33" t="n"/>
     </row>
     <row r="18" spans="1:6">
       <c r="B18" s="27" t="n"/>
       <c r="C18" s="34" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D18" s="25" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E18" s="33" t="n"/>
     </row>
     <row r="19" spans="1:6">
       <c r="B19" s="32" t="n"/>
       <c r="C19" s="31" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D19" s="32" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E19" s="33" t="n"/>
     </row>
     <row r="20" spans="1:6">
       <c r="B20" s="32" t="n"/>
       <c r="C20" s="31" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D20" s="32" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E20" s="33" t="s">
         <v>10</v>
@@ -1548,307 +1527,307 @@
     <row r="21" spans="1:6">
       <c r="B21" s="32" t="n"/>
       <c r="C21" s="31" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D21" s="32" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E21" s="35" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="B22" s="32" t="n"/>
       <c r="C22" s="31" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D22" s="32" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E22" s="41" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="B23" s="36" t="n"/>
       <c r="C23" s="37" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D23" s="38" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E23" s="39" t="n"/>
     </row>
     <row r="24" spans="1:6" ht="16.5" customHeight="1" s="43">
       <c r="A24" s="20" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B24" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="D24" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="E24" s="23" t="n"/>
+      <c r="F24" s="45" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="16.5" customHeight="1" s="43">
+      <c r="A25" s="46" t="n"/>
+      <c r="C25" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="C24" s="21" t="s">
+      <c r="D25" s="25" t="s">
         <v>37</v>
-      </c>
-      <c r="D24" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="E24" s="23" t="n"/>
-      <c r="F24" s="46" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="16.5" customHeight="1" s="43">
-      <c r="A25" s="49" t="n"/>
-      <c r="C25" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="D25" s="25" t="s">
-        <v>40</v>
       </c>
       <c r="E25" s="26" t="n"/>
     </row>
     <row r="26" spans="1:6">
       <c r="B26" s="27" t="n"/>
       <c r="C26" s="28" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D26" s="27" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E26" s="29" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="B27" s="27" t="n"/>
       <c r="C27" s="28" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D27" s="27" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E27" s="30" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="B28" s="27" t="n"/>
       <c r="C28" s="31" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D28" s="32" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E28" s="33" t="n"/>
     </row>
     <row r="29" spans="1:6">
       <c r="B29" s="27" t="n"/>
       <c r="C29" s="34" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D29" s="25" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E29" s="33" t="n"/>
     </row>
     <row r="30" spans="1:6">
       <c r="B30" s="32" t="n"/>
       <c r="C30" s="31" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D30" s="32" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E30" s="33" t="n"/>
     </row>
     <row r="31" spans="1:6" ht="28" customHeight="1" s="43">
       <c r="B31" s="32" t="n"/>
       <c r="C31" s="31" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D31" s="32" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E31" s="40" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="B32" s="32" t="n"/>
       <c r="C32" s="31" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D32" s="32" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E32" s="35" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="B33" s="32" t="n"/>
       <c r="C33" s="31" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D33" s="32" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E33" s="41" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="B34" s="36" t="n"/>
       <c r="C34" s="37" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D34" s="38" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E34" s="39" t="n"/>
     </row>
     <row r="35" spans="1:6" ht="16.5" customHeight="1" s="43">
       <c r="A35" s="20" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B35" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="D35" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="E35" s="23" t="n"/>
+      <c r="F35" s="45" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="16.5" customHeight="1" s="43">
+      <c r="A36" s="46" t="n"/>
+      <c r="C36" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="C35" s="21" t="s">
+      <c r="D36" s="25" t="s">
         <v>37</v>
-      </c>
-      <c r="D35" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="E35" s="23" t="n"/>
-      <c r="F35" s="46" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="16.5" customHeight="1" s="43">
-      <c r="A36" s="49" t="n"/>
-      <c r="C36" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="D36" s="25" t="s">
-        <v>40</v>
       </c>
       <c r="E36" s="26" t="n"/>
     </row>
     <row r="37" spans="1:6">
       <c r="B37" s="27" t="n"/>
       <c r="C37" s="28" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D37" s="27" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E37" s="29" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="B38" s="27" t="n"/>
       <c r="C38" s="28" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D38" s="27" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E38" s="30" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="B39" s="27" t="n"/>
       <c r="C39" s="31" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D39" s="32" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E39" s="33" t="n"/>
     </row>
     <row r="40" spans="1:6">
       <c r="B40" s="27" t="n"/>
       <c r="C40" s="34" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D40" s="25" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E40" s="33" t="n"/>
     </row>
     <row r="41" spans="1:6">
       <c r="B41" s="32" t="n"/>
       <c r="C41" s="31" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D41" s="32" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E41" s="33" t="n"/>
     </row>
     <row r="42" spans="1:6" ht="28" customHeight="1" s="43">
       <c r="B42" s="32" t="n"/>
       <c r="C42" s="31" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D42" s="32" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E42" s="40" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="B43" s="32" t="n"/>
       <c r="C43" s="31" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D43" s="32" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E43" s="35" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="B44" s="32" t="n"/>
       <c r="C44" s="31" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D44" s="32" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E44" s="41" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="B45" s="36" t="n"/>
       <c r="C45" s="37" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D45" s="38" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E45" s="39" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="F24:F34"/>
+    <mergeCell ref="A25:A34"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="F35:F45"/>
+    <mergeCell ref="A36:A45"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="F2:F12"/>
     <mergeCell ref="A3:A12"/>
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="F13:F23"/>
     <mergeCell ref="A14:A23"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="F24:F34"/>
-    <mergeCell ref="A25:A34"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="F35:F45"/>
-    <mergeCell ref="A36:A45"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E4" display="Sch_ool.1a@gmail.com" r:id="rId1"/>

--- a/TC17_ApprovedRequest/17_Choice_ApprovedRequest.xlsx
+++ b/TC17_ApprovedRequest/17_Choice_ApprovedRequest.xlsx
@@ -1,21 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\test2\it\Project_Test_AcademicService\TC17_ApprovedRequest\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E2B6ED6-5F88-478E-80E2-AF96B3C8C31D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="0"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="TC17-EC" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="TC17-TC" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="TC17-EC" sheetId="1" r:id="rId1"/>
+    <sheet name="TC17-TC" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="191029" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="67">
   <si>
     <t>TCID</t>
   </si>
@@ -221,94 +240,93 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="9">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Tahoma"/>
+      <family val="2"/>
       <charset val="222"/>
-      <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Tahoma"/>
       <family val="2"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Tahoma"/>
       <family val="2"/>
-      <b val="1"/>
-      <color rgb="FF000000"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Tahoma"/>
+      <family val="2"/>
       <charset val="222"/>
-      <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Tahoma"/>
+      <family val="2"/>
       <charset val="222"/>
-      <family val="2"/>
-      <color theme="10"/>
-      <sz val="11"/>
-      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="TH Sarabun ps"/>
       <charset val="222"/>
-      <color theme="1"/>
-      <sz val="11"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Tahoma"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
       <name val="Tahoma"/>
       <family val="2"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
       <name val="Tahoma"/>
+      <family val="2"/>
       <charset val="222"/>
-      <family val="2"/>
-      <color rgb="FF00B050"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="7">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.1499984740745262"/>
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.09997863704336681"/>
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -476,143 +494,143 @@
     </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="47">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
     <cellStyle name="เปอร์เซ็นต์" xfId="1" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
   </cellStyles>
   <dxfs count="3">
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="9" tint="0.5999633777886288"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -625,7 +643,7 @@
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
       </font>
       <fill>
         <patternFill>
@@ -635,10 +653,18 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="1">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="1" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="headerRow" dxfId="2"/>
     </tableStyle>
   </tableStyles>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -958,27 +984,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="56" zoomScaleNormal="56" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:H5"/>
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col width="36.4140625" customWidth="1" style="43" min="2" max="3"/>
-    <col width="15.4140625" customWidth="1" style="43" min="4" max="4"/>
-    <col width="19.9140625" customWidth="1" style="43" min="5" max="5"/>
-    <col width="13.9140625" customWidth="1" style="43" min="6" max="6"/>
-    <col width="36" customWidth="1" style="43" min="7" max="7"/>
-    <col width="19.33203125" customWidth="1" style="43" min="8" max="8"/>
-    <col width="19.9140625" customWidth="1" style="43" min="9" max="9"/>
-    <col width="17.33203125" customWidth="1" style="10" min="10" max="10"/>
+    <col min="2" max="3" width="36.4140625" customWidth="1"/>
+    <col min="4" max="4" width="15.4140625" customWidth="1"/>
+    <col min="5" max="5" width="19.9140625" customWidth="1"/>
+    <col min="6" max="6" width="13.9140625" customWidth="1"/>
+    <col min="7" max="7" width="36" customWidth="1"/>
+    <col min="8" max="8" width="19.33203125" customWidth="1"/>
+    <col min="9" max="9" width="19.9140625" customWidth="1"/>
+    <col min="10" max="10" width="17.33203125" style="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -1013,8 +1035,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="60" customHeight="1" s="43">
-      <c r="A2" s="4" t="n">
+    <row r="2" spans="1:10" ht="60" customHeight="1">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -1029,7 +1051,7 @@
       <c r="E2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="4" t="n">
+      <c r="F2" s="4">
         <v>1</v>
       </c>
       <c r="G2" s="4" t="s">
@@ -1045,8 +1067,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="62.5" customHeight="1" s="43">
-      <c r="A3" s="4" t="n">
+    <row r="3" spans="1:10" ht="62.5" customHeight="1">
+      <c r="A3" s="4">
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -1061,7 +1083,7 @@
       <c r="E3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="4" t="n">
+      <c r="F3" s="4">
         <v>2</v>
       </c>
       <c r="G3" s="4" t="s">
@@ -1077,8 +1099,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="46" customHeight="1" s="43">
-      <c r="A4" s="4" t="n">
+    <row r="4" spans="1:10" ht="46" customHeight="1">
+      <c r="A4" s="4">
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -1093,7 +1115,7 @@
       <c r="E4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="4" t="n">
+      <c r="F4" s="4">
         <v>3</v>
       </c>
       <c r="G4" s="4" t="s">
@@ -1109,8 +1131,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="88.5" customHeight="1" s="43">
-      <c r="A5" s="4" t="n">
+    <row r="5" spans="1:10" ht="88.5" customHeight="1">
+      <c r="A5" s="4">
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -1125,7 +1147,7 @@
       <c r="E5" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="4" t="n">
+      <c r="F5" s="4">
         <v>4</v>
       </c>
       <c r="G5" s="4" t="s">
@@ -1145,7 +1167,8 @@
       <c r="F8" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="H8" s="42" t="s">
+      <c r="G8" s="43"/>
+      <c r="H8" s="11" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1155,11 +1178,11 @@
       </c>
       <c r="G9" s="5">
         <f>COUNTIF(H2:H5, "Pass")</f>
-        <v/>
+        <v>4</v>
       </c>
       <c r="H9" s="13">
         <f>G9*100/G11</f>
-        <v/>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1168,11 +1191,11 @@
       </c>
       <c r="G10" s="5">
         <f>COUNTIF(H2:H5, "FAIL")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="H10" s="14">
         <f>G10*100/G11</f>
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -1181,27 +1204,28 @@
       </c>
       <c r="G11" s="15">
         <f>SUM(G9+G10)</f>
-        <v/>
-      </c>
-      <c r="H11" s="17" t="n">
+        <v>4</v>
+      </c>
+      <c r="H11" s="17">
         <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:10">
-      <c r="F12" s="16" t="n"/>
-      <c r="G12" s="16" t="n"/>
-      <c r="H12" s="16" t="n"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="F13" s="16" t="n"/>
-      <c r="G13" s="16" t="n"/>
-      <c r="H13" s="16" t="n"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
     </row>
     <row r="14" spans="1:10">
       <c r="F14" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="H14" s="42" t="s">
+      <c r="G14" s="43"/>
+      <c r="H14" s="11" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1211,11 +1235,11 @@
       </c>
       <c r="G15" s="5">
         <f>COUNTIF(I2:I5, "PASS")</f>
-        <v/>
+        <v>4</v>
       </c>
       <c r="H15" s="13">
         <f>G15*100/G17</f>
-        <v/>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -1224,22 +1248,22 @@
       </c>
       <c r="G16" s="5">
         <f>COUNTIF(I2:I5, "FAIL")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="H16" s="14">
         <f>G16*100/G17</f>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="6:8">
       <c r="F17" s="12" t="s">
         <v>26</v>
       </c>
       <c r="G17" s="15">
         <f>SUM(G15+G16)</f>
-        <v/>
-      </c>
-      <c r="H17" s="13" t="n">
+        <v>4</v>
+      </c>
+      <c r="H17" s="13">
         <v>100</v>
       </c>
     </row>
@@ -1249,10 +1273,10 @@
     <mergeCell ref="F14:G14"/>
   </mergeCells>
   <conditionalFormatting sqref="H1:H1048576">
-    <cfRule type="cellIs" priority="1" operator="equal" dxfId="1">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="2" operator="equal" dxfId="0">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1261,25 +1285,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F45"/>
   <sheetViews>
     <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col width="12.1640625" customWidth="1" style="43" min="1" max="1"/>
-    <col width="26.08203125" customWidth="1" style="43" min="2" max="2"/>
-    <col width="34.6640625" customWidth="1" style="43" min="3" max="3"/>
-    <col width="31.08203125" customWidth="1" style="43" min="4" max="4"/>
-    <col width="24.25" customWidth="1" style="43" min="5" max="5"/>
-    <col width="27.58203125" customWidth="1" style="43" min="6" max="6"/>
+    <col min="1" max="1" width="12.1640625" customWidth="1"/>
+    <col min="2" max="2" width="26.08203125" customWidth="1"/>
+    <col min="3" max="3" width="34.6640625" customWidth="1"/>
+    <col min="4" max="4" width="31.08203125" customWidth="1"/>
+    <col min="5" max="5" width="24.25" customWidth="1"/>
+    <col min="6" max="6" width="27.58203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1302,8 +1322,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="16.5" customHeight="1" s="43">
-      <c r="A2" s="20" t="n">
+    <row r="2" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A2" s="20">
         <v>1</v>
       </c>
       <c r="B2" s="44" t="s">
@@ -1315,23 +1335,26 @@
       <c r="D2" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="23" t="n"/>
+      <c r="E2" s="23"/>
       <c r="F2" s="45" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="16.5" customHeight="1" s="43">
-      <c r="A3" s="46" t="n"/>
+    <row r="3" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A3" s="46"/>
+      <c r="B3" s="43"/>
       <c r="C3" s="24" t="s">
         <v>36</v>
       </c>
       <c r="D3" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="26" t="n"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="43"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="B4" s="27" t="n"/>
+      <c r="A4" s="43"/>
+      <c r="B4" s="27"/>
       <c r="C4" s="28" t="s">
         <v>38</v>
       </c>
@@ -1341,9 +1364,11 @@
       <c r="E4" s="29" t="s">
         <v>40</v>
       </c>
+      <c r="F4" s="43"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="B5" s="27" t="n"/>
+      <c r="A5" s="43"/>
+      <c r="B5" s="27"/>
       <c r="C5" s="28" t="s">
         <v>41</v>
       </c>
@@ -1353,39 +1378,47 @@
       <c r="E5" s="30" t="s">
         <v>43</v>
       </c>
+      <c r="F5" s="43"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="B6" s="27" t="n"/>
+      <c r="A6" s="43"/>
+      <c r="B6" s="27"/>
       <c r="C6" s="31" t="s">
         <v>44</v>
       </c>
       <c r="D6" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="E6" s="33" t="n"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="43"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="B7" s="27" t="n"/>
+      <c r="A7" s="43"/>
+      <c r="B7" s="27"/>
       <c r="C7" s="34" t="s">
         <v>46</v>
       </c>
       <c r="D7" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="E7" s="33" t="n"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="43"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="B8" s="32" t="n"/>
+      <c r="A8" s="43"/>
+      <c r="B8" s="32"/>
       <c r="C8" s="31" t="s">
         <v>48</v>
       </c>
       <c r="D8" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="E8" s="33" t="n"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="43"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="B9" s="32" t="n"/>
+      <c r="A9" s="43"/>
+      <c r="B9" s="32"/>
       <c r="C9" s="31" t="s">
         <v>50</v>
       </c>
@@ -1395,9 +1428,11 @@
       <c r="E9" s="33" t="s">
         <v>10</v>
       </c>
+      <c r="F9" s="43"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="B10" s="32" t="n"/>
+      <c r="A10" s="43"/>
+      <c r="B10" s="32"/>
       <c r="C10" s="31" t="s">
         <v>52</v>
       </c>
@@ -1407,9 +1442,11 @@
       <c r="E10" s="35" t="s">
         <v>18</v>
       </c>
+      <c r="F10" s="43"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="B11" s="32" t="n"/>
+      <c r="A11" s="43"/>
+      <c r="B11" s="32"/>
       <c r="C11" s="31" t="s">
         <v>54</v>
       </c>
@@ -1419,18 +1456,21 @@
       <c r="E11" s="41" t="s">
         <v>56</v>
       </c>
+      <c r="F11" s="43"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="B12" s="36" t="n"/>
+      <c r="A12" s="43"/>
+      <c r="B12" s="36"/>
       <c r="C12" s="37" t="s">
         <v>57</v>
       </c>
       <c r="D12" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="E12" s="39" t="n"/>
-    </row>
-    <row r="13" spans="1:6" ht="16.5" customHeight="1" s="43">
+      <c r="E12" s="39"/>
+      <c r="F12" s="43"/>
+    </row>
+    <row r="13" spans="1:6" ht="16.5" customHeight="1">
       <c r="A13" s="20" t="s">
         <v>59</v>
       </c>
@@ -1443,23 +1483,26 @@
       <c r="D13" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="E13" s="23" t="n"/>
+      <c r="E13" s="23"/>
       <c r="F13" s="45" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="16.5" customHeight="1" s="43">
-      <c r="A14" s="46" t="n"/>
+    <row r="14" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A14" s="46"/>
+      <c r="B14" s="43"/>
       <c r="C14" s="24" t="s">
         <v>36</v>
       </c>
       <c r="D14" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="E14" s="26" t="n"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="43"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="B15" s="27" t="n"/>
+      <c r="A15" s="43"/>
+      <c r="B15" s="27"/>
       <c r="C15" s="28" t="s">
         <v>38</v>
       </c>
@@ -1469,9 +1512,11 @@
       <c r="E15" s="29" t="s">
         <v>40</v>
       </c>
+      <c r="F15" s="43"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="B16" s="27" t="n"/>
+      <c r="A16" s="43"/>
+      <c r="B16" s="27"/>
       <c r="C16" s="28" t="s">
         <v>41</v>
       </c>
@@ -1481,39 +1526,47 @@
       <c r="E16" s="30" t="s">
         <v>43</v>
       </c>
+      <c r="F16" s="43"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="B17" s="27" t="n"/>
+      <c r="A17" s="43"/>
+      <c r="B17" s="27"/>
       <c r="C17" s="31" t="s">
         <v>44</v>
       </c>
       <c r="D17" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="E17" s="33" t="n"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="43"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="B18" s="27" t="n"/>
+      <c r="A18" s="43"/>
+      <c r="B18" s="27"/>
       <c r="C18" s="34" t="s">
         <v>46</v>
       </c>
       <c r="D18" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="E18" s="33" t="n"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="43"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="B19" s="32" t="n"/>
+      <c r="A19" s="43"/>
+      <c r="B19" s="32"/>
       <c r="C19" s="31" t="s">
         <v>48</v>
       </c>
       <c r="D19" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="E19" s="33" t="n"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="43"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="B20" s="32" t="n"/>
+      <c r="A20" s="43"/>
+      <c r="B20" s="32"/>
       <c r="C20" s="31" t="s">
         <v>50</v>
       </c>
@@ -1523,9 +1576,11 @@
       <c r="E20" s="33" t="s">
         <v>10</v>
       </c>
+      <c r="F20" s="43"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="B21" s="32" t="n"/>
+      <c r="A21" s="43"/>
+      <c r="B21" s="32"/>
       <c r="C21" s="31" t="s">
         <v>52</v>
       </c>
@@ -1535,9 +1590,11 @@
       <c r="E21" s="35" t="s">
         <v>18</v>
       </c>
+      <c r="F21" s="43"/>
     </row>
     <row r="22" spans="1:6">
-      <c r="B22" s="32" t="n"/>
+      <c r="A22" s="43"/>
+      <c r="B22" s="32"/>
       <c r="C22" s="31" t="s">
         <v>54</v>
       </c>
@@ -1547,18 +1604,21 @@
       <c r="E22" s="41" t="s">
         <v>61</v>
       </c>
+      <c r="F22" s="43"/>
     </row>
     <row r="23" spans="1:6">
-      <c r="B23" s="36" t="n"/>
+      <c r="A23" s="43"/>
+      <c r="B23" s="36"/>
       <c r="C23" s="37" t="s">
         <v>57</v>
       </c>
       <c r="D23" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="E23" s="39" t="n"/>
-    </row>
-    <row r="24" spans="1:6" ht="16.5" customHeight="1" s="43">
+      <c r="E23" s="39"/>
+      <c r="F23" s="43"/>
+    </row>
+    <row r="24" spans="1:6" ht="16.5" customHeight="1">
       <c r="A24" s="20" t="s">
         <v>62</v>
       </c>
@@ -1571,23 +1631,26 @@
       <c r="D24" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="E24" s="23" t="n"/>
+      <c r="E24" s="23"/>
       <c r="F24" s="45" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="16.5" customHeight="1" s="43">
-      <c r="A25" s="46" t="n"/>
+    <row r="25" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A25" s="46"/>
+      <c r="B25" s="43"/>
       <c r="C25" s="24" t="s">
         <v>36</v>
       </c>
       <c r="D25" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="E25" s="26" t="n"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="43"/>
     </row>
     <row r="26" spans="1:6">
-      <c r="B26" s="27" t="n"/>
+      <c r="A26" s="43"/>
+      <c r="B26" s="27"/>
       <c r="C26" s="28" t="s">
         <v>38</v>
       </c>
@@ -1597,9 +1660,11 @@
       <c r="E26" s="29" t="s">
         <v>40</v>
       </c>
+      <c r="F26" s="43"/>
     </row>
     <row r="27" spans="1:6">
-      <c r="B27" s="27" t="n"/>
+      <c r="A27" s="43"/>
+      <c r="B27" s="27"/>
       <c r="C27" s="28" t="s">
         <v>41</v>
       </c>
@@ -1609,39 +1674,47 @@
       <c r="E27" s="30" t="s">
         <v>43</v>
       </c>
+      <c r="F27" s="43"/>
     </row>
     <row r="28" spans="1:6">
-      <c r="B28" s="27" t="n"/>
+      <c r="A28" s="43"/>
+      <c r="B28" s="27"/>
       <c r="C28" s="31" t="s">
         <v>44</v>
       </c>
       <c r="D28" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="E28" s="33" t="n"/>
+      <c r="E28" s="33"/>
+      <c r="F28" s="43"/>
     </row>
     <row r="29" spans="1:6">
-      <c r="B29" s="27" t="n"/>
+      <c r="A29" s="43"/>
+      <c r="B29" s="27"/>
       <c r="C29" s="34" t="s">
         <v>46</v>
       </c>
       <c r="D29" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="E29" s="33" t="n"/>
+      <c r="E29" s="33"/>
+      <c r="F29" s="43"/>
     </row>
     <row r="30" spans="1:6">
-      <c r="B30" s="32" t="n"/>
+      <c r="A30" s="43"/>
+      <c r="B30" s="32"/>
       <c r="C30" s="31" t="s">
         <v>48</v>
       </c>
       <c r="D30" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="E30" s="33" t="n"/>
-    </row>
-    <row r="31" spans="1:6" ht="28" customHeight="1" s="43">
-      <c r="B31" s="32" t="n"/>
+      <c r="E30" s="33"/>
+      <c r="F30" s="43"/>
+    </row>
+    <row r="31" spans="1:6" ht="28" customHeight="1">
+      <c r="A31" s="43"/>
+      <c r="B31" s="32"/>
       <c r="C31" s="31" t="s">
         <v>50</v>
       </c>
@@ -1651,9 +1724,11 @@
       <c r="E31" s="40" t="s">
         <v>19</v>
       </c>
+      <c r="F31" s="43"/>
     </row>
     <row r="32" spans="1:6">
-      <c r="B32" s="32" t="n"/>
+      <c r="A32" s="43"/>
+      <c r="B32" s="32"/>
       <c r="C32" s="31" t="s">
         <v>63</v>
       </c>
@@ -1663,9 +1738,11 @@
       <c r="E32" s="35" t="s">
         <v>21</v>
       </c>
+      <c r="F32" s="43"/>
     </row>
     <row r="33" spans="1:6">
-      <c r="B33" s="32" t="n"/>
+      <c r="A33" s="43"/>
+      <c r="B33" s="32"/>
       <c r="C33" s="31" t="s">
         <v>54</v>
       </c>
@@ -1675,18 +1752,21 @@
       <c r="E33" s="41" t="s">
         <v>56</v>
       </c>
+      <c r="F33" s="43"/>
     </row>
     <row r="34" spans="1:6">
-      <c r="B34" s="36" t="n"/>
+      <c r="A34" s="43"/>
+      <c r="B34" s="36"/>
       <c r="C34" s="37" t="s">
         <v>57</v>
       </c>
       <c r="D34" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="E34" s="39" t="n"/>
-    </row>
-    <row r="35" spans="1:6" ht="16.5" customHeight="1" s="43">
+      <c r="E34" s="39"/>
+      <c r="F34" s="43"/>
+    </row>
+    <row r="35" spans="1:6" ht="16.5" customHeight="1">
       <c r="A35" s="20" t="s">
         <v>65</v>
       </c>
@@ -1699,23 +1779,26 @@
       <c r="D35" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="E35" s="23" t="n"/>
+      <c r="E35" s="23"/>
       <c r="F35" s="45" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="16.5" customHeight="1" s="43">
-      <c r="A36" s="46" t="n"/>
+    <row r="36" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A36" s="46"/>
+      <c r="B36" s="43"/>
       <c r="C36" s="24" t="s">
         <v>36</v>
       </c>
       <c r="D36" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="E36" s="26" t="n"/>
+      <c r="E36" s="26"/>
+      <c r="F36" s="43"/>
     </row>
     <row r="37" spans="1:6">
-      <c r="B37" s="27" t="n"/>
+      <c r="A37" s="43"/>
+      <c r="B37" s="27"/>
       <c r="C37" s="28" t="s">
         <v>38</v>
       </c>
@@ -1725,9 +1808,11 @@
       <c r="E37" s="29" t="s">
         <v>40</v>
       </c>
+      <c r="F37" s="43"/>
     </row>
     <row r="38" spans="1:6">
-      <c r="B38" s="27" t="n"/>
+      <c r="A38" s="43"/>
+      <c r="B38" s="27"/>
       <c r="C38" s="28" t="s">
         <v>41</v>
       </c>
@@ -1737,39 +1822,47 @@
       <c r="E38" s="30" t="s">
         <v>43</v>
       </c>
+      <c r="F38" s="43"/>
     </row>
     <row r="39" spans="1:6">
-      <c r="B39" s="27" t="n"/>
+      <c r="A39" s="43"/>
+      <c r="B39" s="27"/>
       <c r="C39" s="31" t="s">
         <v>44</v>
       </c>
       <c r="D39" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="E39" s="33" t="n"/>
+      <c r="E39" s="33"/>
+      <c r="F39" s="43"/>
     </row>
     <row r="40" spans="1:6">
-      <c r="B40" s="27" t="n"/>
+      <c r="A40" s="43"/>
+      <c r="B40" s="27"/>
       <c r="C40" s="34" t="s">
         <v>46</v>
       </c>
       <c r="D40" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="E40" s="33" t="n"/>
+      <c r="E40" s="33"/>
+      <c r="F40" s="43"/>
     </row>
     <row r="41" spans="1:6">
-      <c r="B41" s="32" t="n"/>
+      <c r="A41" s="43"/>
+      <c r="B41" s="32"/>
       <c r="C41" s="31" t="s">
         <v>48</v>
       </c>
       <c r="D41" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="E41" s="33" t="n"/>
-    </row>
-    <row r="42" spans="1:6" ht="28" customHeight="1" s="43">
-      <c r="B42" s="32" t="n"/>
+      <c r="E41" s="33"/>
+      <c r="F41" s="43"/>
+    </row>
+    <row r="42" spans="1:6" ht="28" customHeight="1">
+      <c r="A42" s="43"/>
+      <c r="B42" s="32"/>
       <c r="C42" s="31" t="s">
         <v>50</v>
       </c>
@@ -1779,9 +1872,11 @@
       <c r="E42" s="40" t="s">
         <v>19</v>
       </c>
+      <c r="F42" s="43"/>
     </row>
     <row r="43" spans="1:6">
-      <c r="B43" s="32" t="n"/>
+      <c r="A43" s="43"/>
+      <c r="B43" s="32"/>
       <c r="C43" s="31" t="s">
         <v>63</v>
       </c>
@@ -1791,9 +1886,11 @@
       <c r="E43" s="35" t="s">
         <v>21</v>
       </c>
+      <c r="F43" s="43"/>
     </row>
     <row r="44" spans="1:6">
-      <c r="B44" s="32" t="n"/>
+      <c r="A44" s="43"/>
+      <c r="B44" s="32"/>
       <c r="C44" s="31" t="s">
         <v>66</v>
       </c>
@@ -1803,37 +1900,40 @@
       <c r="E44" s="41" t="s">
         <v>61</v>
       </c>
+      <c r="F44" s="43"/>
     </row>
     <row r="45" spans="1:6">
-      <c r="B45" s="36" t="n"/>
+      <c r="A45" s="43"/>
+      <c r="B45" s="36"/>
       <c r="C45" s="37" t="s">
         <v>57</v>
       </c>
       <c r="D45" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="E45" s="39" t="n"/>
+      <c r="E45" s="39"/>
+      <c r="F45" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="F2:F12"/>
+    <mergeCell ref="A3:A12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="F13:F23"/>
+    <mergeCell ref="A14:A23"/>
     <mergeCell ref="B24:B25"/>
     <mergeCell ref="F24:F34"/>
     <mergeCell ref="A25:A34"/>
     <mergeCell ref="B35:B36"/>
     <mergeCell ref="F35:F45"/>
     <mergeCell ref="A36:A45"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="F2:F12"/>
-    <mergeCell ref="A3:A12"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="F13:F23"/>
-    <mergeCell ref="A14:A23"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E4" display="Sch_ool.1a@gmail.com" r:id="rId1"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E15" display="Sch_ool.1a@gmail.com" r:id="rId2"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E26" display="Sch_ool.1a@gmail.com" r:id="rId3"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E37" display="Sch_ool.1a@gmail.com" r:id="rId4"/>
+    <hyperlink ref="E4" r:id="rId1" display="Sch_ool.1a@gmail.com" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="E15" r:id="rId2" display="Sch_ool.1a@gmail.com" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="E26" r:id="rId3" display="Sch_ool.1a@gmail.com" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="E37" r:id="rId4" display="Sch_ool.1a@gmail.com" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
